--- a/data/Subset1_WithDialogActs/Boats and Fish 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Boats and Fish 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
